--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\ImmCalcPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6FD9D70D-6D84-42C5-8E2B-5A5C81E79AD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{49370DC8-7842-4DC6-9BA6-6EAA06C638FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{75F3E91E-0EBE-48C9-A277-E623824146A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>In</t>
   </si>
@@ -395,13 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1609D22A-CDC1-4516-B080-DD4C8CE7657D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -428,8 +431,109 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
